--- a/analysis/analysis.xlsx
+++ b/analysis/analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leven\PycharmProjects\political-rhetoric-classification\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AE1D0B9-F635-4955-AD8E-67CFDAED0218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAA34FD-0625-4023-A4C1-34CF1622B2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{7D356BE8-AAC0-4301-93C4-094B9CBC280B}"/>
   </bookViews>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
-  <si>
-    <t>num</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>magyar</t>
   </si>
@@ -99,12 +96,6 @@
     <t>idő</t>
   </si>
   <si>
-    <t>Top 20 pro gov</t>
-  </si>
-  <si>
-    <t>0.045438</t>
-  </si>
-  <si>
     <t>viktor</t>
   </si>
   <si>
@@ -129,9 +120,6 @@
     <t>miniszterelnök</t>
   </si>
   <si>
-    <t>Top 20 independent</t>
-  </si>
-  <si>
     <t>ez</t>
   </si>
   <si>
@@ -190,6 +178,12 @@
   </si>
   <si>
     <t>Magyar</t>
+  </si>
+  <si>
+    <t>Top 20 Independent</t>
+  </si>
+  <si>
+    <t>Top 20 Pro-Gov</t>
   </si>
 </sst>
 </file>
@@ -225,12 +219,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -451,31 +444,31 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>2.1565999999999998E-2</c:v>
+                  <c:v>2.6549E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5195999999999999E-2</c:v>
+                  <c:v>2.4673E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>2.0707E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3807999999999998E-2</c:v>
+                  <c:v>3.7041999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9481999999999999E-2</c:v>
+                  <c:v>1.2999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>3.2479000439929899E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7160434562406901E-2</c:v>
+                  <c:v>1.75167331502947E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.5695179729396502E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.84510634350314E-2</c:v>
+                  <c:v>1.7945375534299601E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.8167827130857898E-2</c:v>
@@ -484,7 +477,7 @@
                   <c:v>1.7757413088131901E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>1.9229700572501299E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1.5545578407167001E-2</c:v>
@@ -589,31 +582,31 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>2.6549E-2</c:v>
+                  <c:v>2.1565999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4673E-2</c:v>
+                  <c:v>1.5195999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0707E-2</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.7041999999999999E-2</c:v>
+                  <c:v>3.3807999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2999999999999999E-2</c:v>
+                  <c:v>1.9481999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1538000000000002E-2</c:v>
+                  <c:v>2.0943217941313701E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.92951075099029E-2</c:v>
+                  <c:v>1.25745406860249E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.7511361483670398E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7945375534299601E-2</c:v>
+                  <c:v>1.84510634350314E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.22299921776843E-2</c:v>
@@ -622,7 +615,7 @@
                   <c:v>1.6785692278838801E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.9230000000000001E-2</c:v>
+                  <c:v>1.23638440259153E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1.0519869652976899E-2</c:v>
@@ -1045,31 +1038,31 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2.1565999999999998E-2</c:v>
+                  <c:v>2.6549E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5195999999999999E-2</c:v>
+                  <c:v>2.4673E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>2.0707E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3807999999999998E-2</c:v>
+                  <c:v>3.7041999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9481999999999999E-2</c:v>
+                  <c:v>1.2999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>3.2479000439929899E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7160434562406901E-2</c:v>
+                  <c:v>1.75167331502947E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.5695179729396502E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.84510634350314E-2</c:v>
+                  <c:v>1.7945375534299601E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.8167827130857898E-2</c:v>
@@ -1078,7 +1071,7 @@
                   <c:v>1.7757413088131901E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>1.9229700572501299E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1.5545578407167001E-2</c:v>
@@ -1183,31 +1176,31 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2.6549E-2</c:v>
+                  <c:v>2.1565999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4673E-2</c:v>
+                  <c:v>1.5195999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0707E-2</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.7041999999999999E-2</c:v>
+                  <c:v>3.3807999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2999999999999999E-2</c:v>
+                  <c:v>1.9481999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1538000000000002E-2</c:v>
+                  <c:v>2.0943217941313701E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.92951075099029E-2</c:v>
+                  <c:v>1.25745406860249E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.7511361483670398E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7945375534299601E-2</c:v>
+                  <c:v>1.84510634350314E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.22299921776843E-2</c:v>
@@ -1216,7 +1209,7 @@
                   <c:v>1.6785692278838801E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.9230000000000001E-2</c:v>
+                  <c:v>1.23638440259153E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1.0519869652976899E-2</c:v>
@@ -2582,10 +2575,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2907,8 +2896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174DF613-EE2F-4849-8000-91CB5EAE824E}">
   <dimension ref="B2:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2918,27 +2907,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="4"/>
+      <c r="B2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3.3807999999999998E-2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3.7041999999999999E-2</v>
+      </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>3.3807999999999998E-2</v>
+        <v>2.9241E-2</v>
       </c>
       <c r="G4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3.2479000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -2946,13 +2949,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="2">
-        <v>2.9241E-2</v>
+        <v>2.5201000000000001E-2</v>
       </c>
       <c r="G5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>3.7041999999999999E-2</v>
+        <v>5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2.6549E-2</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -2960,13 +2963,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="2">
-        <v>2.5201000000000001E-2</v>
+        <v>2.3862999999999999E-2</v>
       </c>
       <c r="G6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6">
-        <v>3.2479000000000001E-2</v>
+        <v>16</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2.5475999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -2974,13 +2977,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="2">
-        <v>2.3862999999999999E-2</v>
+        <v>2.1663999999999999E-2</v>
       </c>
       <c r="G7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7">
-        <v>2.6549E-2</v>
+        <v>19</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2.4687000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -2988,41 +2991,41 @@
         <v>5</v>
       </c>
       <c r="C8" s="2">
-        <v>2.1663999999999999E-2</v>
+        <v>2.1565999999999998E-2</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8">
-        <v>2.5475999999999999E-2</v>
+        <v>20</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2.4673E-2</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2">
-        <v>2.1565999999999998E-2</v>
+        <v>2.1017999999999998E-2</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9">
-        <v>2.4687000000000001E-2</v>
+        <v>7</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2.3605000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2">
-        <v>2.1017999999999998E-2</v>
+        <v>2.0943E-2</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10">
-        <v>2.4673E-2</v>
+        <v>21</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2.1538000000000002E-2</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -3030,41 +3033,41 @@
         <v>7</v>
       </c>
       <c r="C11" s="2">
-        <v>2.0943E-2</v>
+        <v>2.0736000000000001E-2</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11">
-        <v>2.3605000000000001E-2</v>
+        <v>3</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2.1312999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2">
-        <v>2.0736000000000001E-2</v>
+        <v>2.0528000000000001E-2</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12">
-        <v>2.1538000000000002E-2</v>
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2.1292999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2">
-        <v>2.0528000000000001E-2</v>
+        <v>2.0414999999999999E-2</v>
       </c>
       <c r="G13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13">
-        <v>2.1312999999999999E-2</v>
+        <v>22</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2.0707E-2</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -3072,13 +3075,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="2">
-        <v>2.0414999999999999E-2</v>
+        <v>1.9958E-2</v>
       </c>
       <c r="G14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <v>2.1292999999999999E-2</v>
+        <v>4</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2.0209999999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -3086,13 +3089,13 @@
         <v>10</v>
       </c>
       <c r="C15" s="2">
-        <v>1.9958E-2</v>
+        <v>1.9481999999999999E-2</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15">
-        <v>2.0707E-2</v>
+        <v>28</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1.9910000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -3100,13 +3103,13 @@
         <v>11</v>
       </c>
       <c r="C16" s="2">
-        <v>1.9481999999999999E-2</v>
+        <v>1.9295E-2</v>
       </c>
       <c r="G16" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16">
-        <v>2.0209999999999999E-2</v>
+        <v>23</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1.9230000000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -3114,13 +3117,13 @@
         <v>12</v>
       </c>
       <c r="C17" s="2">
-        <v>1.9295E-2</v>
+        <v>1.9223000000000001E-2</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17">
-        <v>1.9910000000000001E-2</v>
+        <v>17</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1.8450999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -3128,13 +3131,13 @@
         <v>13</v>
       </c>
       <c r="C18" s="2">
-        <v>1.9223000000000001E-2</v>
+        <v>1.8959E-2</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18">
-        <v>1.9230000000000001E-2</v>
+        <v>2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1.8298999999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -3142,13 +3145,13 @@
         <v>14</v>
       </c>
       <c r="C19" s="2">
-        <v>1.8959E-2</v>
+        <v>1.8859000000000001E-2</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19">
-        <v>1.8450999999999999E-2</v>
+        <v>24</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1.8168E-2</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -3156,13 +3159,13 @@
         <v>15</v>
       </c>
       <c r="C20" s="2">
-        <v>1.8859000000000001E-2</v>
+        <v>1.8624999999999999E-2</v>
       </c>
       <c r="G20" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20">
-        <v>1.8298999999999999E-2</v>
+        <v>25</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1.7756999999999998E-2</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -3170,216 +3173,196 @@
         <v>16</v>
       </c>
       <c r="C21" s="2">
-        <v>1.8624999999999999E-2</v>
+        <v>1.8241E-2</v>
       </c>
       <c r="G21" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21">
-        <v>1.8168E-2</v>
+        <v>26</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1.7517000000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2">
-        <v>1.8241E-2</v>
-      </c>
-      <c r="G22" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22">
-        <v>1.7756999999999998E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="2">
         <v>1.7940000000000001E-2</v>
-      </c>
-      <c r="G23" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23">
-        <v>1.7517000000000001E-2</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="3">
+        <v>45</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2.6549E-2</v>
+      </c>
+      <c r="D27" s="2">
         <v>2.1565999999999998E-2</v>
-      </c>
-      <c r="D27" s="3">
-        <v>2.6549E-2</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="3">
+        <v>33</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2.4673E-2</v>
+      </c>
+      <c r="D28" s="2">
         <v>1.5195999999999999E-2</v>
-      </c>
-      <c r="D28" s="3">
-        <v>2.4673E-2</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="3">
+        <v>34</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2.0707E-2</v>
+      </c>
+      <c r="D29" s="2">
         <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D29" s="3">
-        <v>2.0707E-2</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="3">
+        <v>46</v>
+      </c>
+      <c r="C30" s="2">
+        <v>3.7041999999999999E-2</v>
+      </c>
+      <c r="D30" s="2">
         <v>3.3807999999999998E-2</v>
-      </c>
-      <c r="D30" s="3">
-        <v>3.7041999999999999E-2</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="3">
+        <v>32</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D31" s="2">
         <v>1.9481999999999999E-2</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="3">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>2.1538000000000002E-2</v>
+        <v>35</v>
+      </c>
+      <c r="C32" s="2">
+        <v>3.2479000439929899E-2</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2.0943217941313701E-2</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="3">
-        <v>1.7160434562406901E-2</v>
-      </c>
-      <c r="D33" s="3">
-        <v>1.92951075099029E-2</v>
+        <v>44</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1.75167331502947E-2</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1.25745406860249E-2</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="3">
+        <v>42</v>
+      </c>
+      <c r="C34" s="2">
         <v>1.5695179729396502E-2</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>1.7511361483670398E-2</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="3">
+        <v>43</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1.7945375534299601E-2</v>
+      </c>
+      <c r="D35" s="2">
         <v>1.84510634350314E-2</v>
-      </c>
-      <c r="D35" s="3">
-        <v>1.7945375534299601E-2</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="3">
+        <v>37</v>
+      </c>
+      <c r="C36" s="2">
         <v>1.8167827130857898E-2</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="2">
         <v>1.22299921776843E-2</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="3">
+        <v>38</v>
+      </c>
+      <c r="C37" s="2">
         <v>1.7757413088131901E-2</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>1.6785692278838801E-2</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="3">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D38" s="3">
-        <v>1.9230000000000001E-2</v>
+        <v>36</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1.9229700572501299E-2</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1.23638440259153E-2</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="3">
+        <v>39</v>
+      </c>
+      <c r="C39" s="2">
         <v>1.5545578407167001E-2</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <v>1.0519869652976899E-2</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="3">
+        <v>40</v>
+      </c>
+      <c r="C40" s="2">
         <v>1.4172322254795399E-2</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="2">
         <v>1.0293484072546599E-2</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="3">
+        <v>41</v>
+      </c>
+      <c r="C41" s="2">
         <v>1.63173078639566E-2</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <v>1.54779873356427E-2</v>
       </c>
     </row>
@@ -3398,21 +3381,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumentum" ma:contentTypeID="0x0101009F15AF57FD09DF44B751F5685491C824" ma:contentTypeVersion="10" ma:contentTypeDescription="Új dokumentum létrehozása." ma:contentTypeScope="" ma:versionID="4bf08183aceb86d49ba2adada8b0b823">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6e11d711-cc76-4ce9-ae29-cbc4dc4ad623" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="57113482ddc28ce29b2167f713acc199" ns3:_="">
     <xsd:import namespace="6e11d711-cc76-4ce9-ae29-cbc4dc4ad623"/>
@@ -3594,31 +3562,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF109CF5-997D-4D9D-B557-370EE238663E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6e11d711-cc76-4ce9-ae29-cbc4dc4ad623"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82BCDA86-AB7E-40EB-8316-625A432321DC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACC2C554-EF67-4040-810A-5A417431A154}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3634,4 +3593,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82BCDA86-AB7E-40EB-8316-625A432321DC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF109CF5-997D-4D9D-B557-370EE238663E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6e11d711-cc76-4ce9-ae29-cbc4dc4ad623"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>